--- a/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
+++ b/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tati\Desktop\Pós ES\Modelagem de Negócio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tati\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Agendar Consulta 02" sheetId="3" r:id="rId1"/>
-    <sheet name="Agendar Consulta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Externo</t>
   </si>
@@ -103,52 +102,28 @@
     <t>FA</t>
   </si>
   <si>
-    <t>x(2)</t>
-  </si>
-  <si>
-    <t>x(3)</t>
-  </si>
-  <si>
     <t>Agendar Consulta</t>
   </si>
   <si>
-    <t>Paciente solicita uma consulta.</t>
-  </si>
-  <si>
-    <t>Recepcionista realiza o agendamento da consulta</t>
-  </si>
-  <si>
-    <t>Recepcionista verifica na agenda data e horário disponível</t>
-  </si>
-  <si>
-    <t>Agenda não posssui horários disponíveis</t>
-  </si>
-  <si>
-    <t>Recepcionista contata os pacientes para confirmar a consulta</t>
-  </si>
-  <si>
-    <t>Recepcionista confirma consultas</t>
-  </si>
-  <si>
-    <t>Recepcionista não recebe confirmação de consulta</t>
-  </si>
-  <si>
     <t>x(1)</t>
   </si>
   <si>
-    <t>x(4)</t>
-  </si>
-  <si>
-    <t>Recepcionista cancela agendamento de consulta</t>
-  </si>
-  <si>
-    <t>x(8)</t>
-  </si>
-  <si>
-    <t>Paciente solicita agendamento da consulta</t>
-  </si>
-  <si>
-    <t>Paciente solicita cancelamento/reagendamento da consulta</t>
+    <t>x(3,4)</t>
+  </si>
+  <si>
+    <t>Paciente solicita cancelamento da consulta.</t>
+  </si>
+  <si>
+    <t>Paciente solicita reagendamento da consulta.</t>
+  </si>
+  <si>
+    <t>Paciente solicita confirmação da consulta.</t>
+  </si>
+  <si>
+    <t>Paciente solicita agendamento da consulta.</t>
+  </si>
+  <si>
+    <t>Paciente solicita reagendamento ou cancelamento após 24hrs de antecedência.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -409,10 +384,36 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -421,26 +422,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -450,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -464,9 +493,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -482,9 +508,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -497,7 +520,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,16 +532,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -529,6 +543,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,26 +903,26 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -910,51 +948,107 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="27">
+        <v>2</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="27">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="27">
+        <v>4</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="29">
+        <v>5</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
+      <c r="J7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
@@ -962,228 +1056,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="11">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="11">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="11">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="11">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B10"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
+++ b/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Downloads\Takai\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Agendar Consulta 02" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Externo</t>
   </si>
@@ -99,18 +99,12 @@
     <t>x</t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
     <t>Agendar Consulta</t>
   </si>
   <si>
     <t>x(1)</t>
   </si>
   <si>
-    <t>x(3,4)</t>
-  </si>
-  <si>
     <t>Paciente solicita cancelamento da consulta.</t>
   </si>
   <si>
@@ -121,15 +115,12 @@
   </si>
   <si>
     <t>Paciente solicita agendamento da consulta.</t>
-  </si>
-  <si>
-    <t>Paciente solicita reagendamento ou cancelamento após 24hrs de antecedência.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -336,21 +327,45 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -361,19 +376,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -387,89 +424,9 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -479,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -508,6 +465,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -515,12 +484,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,12 +492,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -544,29 +501,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,7 +539,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -626,7 +577,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,23 +612,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -713,26 +647,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -882,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,23 +823,23 @@
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -948,17 +865,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="12">
         <v>1</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>20</v>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -970,17 +887,17 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="27">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>19</v>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
@@ -988,17 +905,17 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="27">
+      <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>18</v>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1006,46 +923,26 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="27">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>17</v>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="29">
-        <v>5</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>

--- a/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
+++ b/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
@@ -53,12 +53,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="F4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Não previsível, pois o paciente pode ou não solicitar uma consulta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Não previsível, pois o paciente pode ou não solicitar uma consulta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Não previsível, pois o paciente pode ou não solicitar uma consulta</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Externo</t>
   </si>
@@ -100,9 +172,6 @@
   </si>
   <si>
     <t>Agendar Consulta</t>
-  </si>
-  <si>
-    <t>x(1)</t>
   </si>
   <si>
     <t>Paciente solicita cancelamento da consulta.</t>
@@ -477,6 +546,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -500,24 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +871,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,25 +889,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="14" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
@@ -865,17 +934,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="9" t="s">
@@ -887,17 +956,17 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="13">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
@@ -905,17 +974,17 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -923,17 +992,17 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="13">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>

--- a/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
+++ b/ModelagemDosProcessosDeNegocio/Lista de eventos - Agendar Consulta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Downloads\Takai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FIT\TCC.github.io\ModelagemDosProcessosDeNegocio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Externo</t>
   </si>
@@ -184,6 +184,72 @@
   </si>
   <si>
     <t>Paciente solicita agendamento da consulta.</t>
+  </si>
+  <si>
+    <t>Receber
+Pagamento
+Empresa</t>
+  </si>
+  <si>
+    <t>Psicóloga finaliza a consulta</t>
+  </si>
+  <si>
+    <t>Psicóloga registra a cobrança do serviço em pastas no seu computador pessoal</t>
+  </si>
+  <si>
+    <t>x(1)</t>
+  </si>
+  <si>
+    <t>Psicóloga consolida cobrança de serviço</t>
+  </si>
+  <si>
+    <t>x(2)</t>
+  </si>
+  <si>
+    <t>Psicóloga envia consolidado de cobrança para empresa.</t>
+  </si>
+  <si>
+    <t>x(3)</t>
+  </si>
+  <si>
+    <t>Empresa efetua o pagamento</t>
+  </si>
+  <si>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Empresa não efetua o pagamento</t>
+  </si>
+  <si>
+    <t>Receber
+Pagamento
+Particular</t>
+  </si>
+  <si>
+    <t>Informa o valor para o paciente</t>
+  </si>
+  <si>
+    <t>Paciente efetua o pagamento</t>
+  </si>
+  <si>
+    <t>Paciente não efetua o pagamento</t>
+  </si>
+  <si>
+    <t>Receber
+Pagamento
+Palestra</t>
+  </si>
+  <si>
+    <t>Psicóloga finaliza a palestra</t>
+  </si>
+  <si>
+    <t>Cliente efetua o pagamento</t>
+  </si>
+  <si>
+    <t>Cliente não efetua o pagamento</t>
   </si>
 </sst>
 </file>
@@ -259,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -501,11 +567,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -543,9 +679,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,6 +720,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,15 +1028,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -889,25 +1049,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
@@ -934,10 +1094,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="12">
@@ -956,9 +1116,9 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="13">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -974,9 +1134,9 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="13">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -992,9 +1152,9 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="13">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="12">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -1009,8 +1169,285 @@
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12">
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="12">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="12">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="12">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="12">
+        <v>13</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="12">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="12">
+        <v>15</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="12">
+        <v>17</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="12">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="G1:I1"/>
